--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165634.079999583</v>
+        <v>1185419.003752166</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688887.019951508</v>
+        <v>1409000.69729498</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7011176.16275412</v>
+        <v>7060550.372378139</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9111613.922570536</v>
+        <v>9100925.307603894</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>23.24679962132534</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>49.55412697417572</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.37301815328992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>368.0745826192868</v>
       </c>
       <c r="H5" t="n">
-        <v>198.3450009723331</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U7" t="n">
-        <v>174.9442930587126</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>81.47836036210275</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>52.10844059186266</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.4548648132222</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="V11" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,25 +1531,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>24.9193234575013</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.10050473850211</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.0539108790634</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>150.2886193881554</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>95.4229224736506</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>44.29829074389232</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,10 +1938,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>79.54865892385529</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.07683090227378</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,19 +2084,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>31.58691634897314</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>1.693478580605296</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938906</v>
@@ -2132,7 +2132,7 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>108.8831510291874</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>326.5356235851843</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>282.7417025712735</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>56.35124001367925</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>87.74759243807446</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>195.7186193310601</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -2606,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>213.9189633675408</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2728,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>62.92138227566746</v>
       </c>
       <c r="T28" t="n">
-        <v>191.4420262610233</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,13 +2846,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>167.0971701029199</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>82.80121385122656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677915</v>
+        <v>22.79825004194663</v>
       </c>
       <c r="S31" t="n">
-        <v>125.1565945305707</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>167.0971701029199</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3044,10 +3044,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>314.2965996066442</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>22.79825004194604</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.454476553027505</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T34" t="n">
         <v>223.3729047207587</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>354.7490148953316</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>167.0971701029199</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>79.28604738508825</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>241.8013207987627</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>105.5638996453402</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>280.0212490314273</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>129.222444347307</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.980384243197606</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H41" t="n">
-        <v>223.9566566255735</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>152.283606104893</v>
+        <v>165.0140383262325</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>382.9987713001076</v>
       </c>
       <c r="G44" t="n">
-        <v>296.6551565374745</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>92.76716251555852</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>165.0140383262326</v>
       </c>
       <c r="U46" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2400.004118741662</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2068.941231398091</v>
       </c>
       <c r="W2" t="n">
-        <v>2338.303942475518</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.838184214438</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.838184214438</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>81.59249510651588</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>81.59249510651588</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>81.59249510651588</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>81.59249510651588</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>81.59249510651588</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>1580.775345511216</v>
       </c>
       <c r="D5" t="n">
-        <v>825.7212517577275</v>
+        <v>1222.509646904466</v>
       </c>
       <c r="E5" t="n">
-        <v>825.7212517577275</v>
+        <v>836.7213943062213</v>
       </c>
       <c r="F5" t="n">
-        <v>825.7212517577275</v>
+        <v>425.7354895166138</v>
       </c>
       <c r="G5" t="n">
-        <v>407.7574436559144</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>551.4175770764215</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>551.4175770764215</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>551.4175770764215</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>551.4175770764215</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.4175770764215</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2438.670229229258</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2438.670229229258</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.607341885688</v>
+        <v>2669.933035536899</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>2317.164380266785</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V11" t="n">
-        <v>2476.569858826099</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.569858826099</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X11" t="n">
-        <v>2476.569858826099</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.569858826099</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5109,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D13" t="n">
-        <v>211.6913543878343</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E13" t="n">
-        <v>211.6913543878343</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F13" t="n">
-        <v>211.6913543878343</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G13" t="n">
-        <v>211.6913543878343</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2313.256251746442</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C14" t="n">
-        <v>1944.29373480603</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D14" t="n">
-        <v>1586.028036199279</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E14" t="n">
-        <v>1200.239783601035</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>789.2538788114275</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>372.166097047855</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>242.5828808341008</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>646.0499938541462</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>1198.863252100346</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
-        <v>1830.581063083657</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2171.069779676836</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2341.238804993795</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2451.973130243322</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018223</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018223</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>338.2052143260215</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>99.84783883004798</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>172.6022336772601</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>502.03063798307</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>1006.392177849189</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1185.889514203793</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1432.170805967367</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.606814720089</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2405.574583200926</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>923.3997019991118</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2452.998035652587</v>
+        <v>2094.732337045837</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.035518712175</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D17" t="n">
         <v>1725.769820105425</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.98156750718</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175727</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540002</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265097</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604023</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.93754444976</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
         <v>3699.589756331025</v>
@@ -5540,25 +5540,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.589756331025</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V17" t="n">
-        <v>3603.2029659536</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="W17" t="n">
-        <v>3603.2029659536</v>
+        <v>3244.93726734685</v>
       </c>
       <c r="X17" t="n">
-        <v>3229.73720769252</v>
+        <v>2871.47150908577</v>
       </c>
       <c r="Y17" t="n">
-        <v>2839.597875716709</v>
+        <v>2481.332177109959</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4134795532262</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9604502720993</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.026040610848</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7885856053925</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322775</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>220.8126299914994</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>119.896652136304</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835162</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468732</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>397.4884646625671</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1038.033814129672</v>
+        <v>1568.841018574499</v>
       </c>
       <c r="N18" t="n">
-        <v>1711.239506382454</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O18" t="n">
-        <v>2260.675515135177</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
         <v>2635.224952969837</v>
@@ -5628,7 +5628,7 @@
         <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.477972271982</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
         <v>1571.240615543781</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>304.4606152701232</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>224.1084345389562</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
         <v>73.9917951266205</v>
@@ -5674,49 +5674,49 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222303</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230487</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422867</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783909</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669898</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585965</v>
+        <v>1007.182202947302</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585965</v>
+        <v>799.7419181997077</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983302</v>
+        <v>799.7419181997077</v>
       </c>
       <c r="U19" t="n">
-        <v>559.14510347601</v>
+        <v>799.7419181997077</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701232</v>
+        <v>545.0574299938208</v>
       </c>
       <c r="W19" t="n">
-        <v>304.4606152701232</v>
+        <v>255.6402599568602</v>
       </c>
       <c r="X19" t="n">
-        <v>304.4606152701232</v>
+        <v>255.6402599568602</v>
       </c>
       <c r="Y19" t="n">
-        <v>304.4606152701232</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1240.846680926016</v>
+        <v>1808.41519792842</v>
       </c>
       <c r="C20" t="n">
-        <v>871.8841639856048</v>
+        <v>1439.452680988008</v>
       </c>
       <c r="D20" t="n">
-        <v>513.6184653788544</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>513.6184653788544</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>513.6184653788544</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H20" t="n">
         <v>193.68476572651</v>
@@ -5750,7 +5750,7 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
         <v>666.0988071604008</v>
@@ -5759,13 +5759,13 @@
         <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5780,22 +5780,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095564</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.883153840715</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V20" t="n">
-        <v>2743.820266497144</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W20" t="n">
-        <v>2391.05161122703</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="X20" t="n">
-        <v>2017.58585296595</v>
+        <v>2585.154369968353</v>
       </c>
       <c r="Y20" t="n">
-        <v>1627.446520990138</v>
+        <v>2195.015037992542</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893251</v>
+        <v>260.2588666468723</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>764.62040651299</v>
       </c>
       <c r="M21" t="n">
-        <v>1666.986340622547</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N21" t="n">
-        <v>1865.64308227521</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2209.632142884838</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5935,25 +5935,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>963.9434957483995</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>738.3142990607644</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>738.3142990607644</v>
+        <v>784.7743001636422</v>
       </c>
       <c r="V22" t="n">
-        <v>483.6298108548775</v>
+        <v>530.0898119577554</v>
       </c>
       <c r="W22" t="n">
-        <v>483.6298108548775</v>
+        <v>240.6726419207948</v>
       </c>
       <c r="X22" t="n">
-        <v>255.6402599568602</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y22" t="n">
-        <v>255.6402599568602</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2252.153123480448</v>
+        <v>2062.106901183269</v>
       </c>
       <c r="C23" t="n">
-        <v>1883.190606540036</v>
+        <v>1693.144384242857</v>
       </c>
       <c r="D23" t="n">
-        <v>1524.924907933286</v>
+        <v>1693.144384242857</v>
       </c>
       <c r="E23" t="n">
-        <v>1139.136655335041</v>
+        <v>1307.356131644613</v>
       </c>
       <c r="F23" t="n">
-        <v>809.3026921176836</v>
+        <v>896.3702268550053</v>
       </c>
       <c r="G23" t="n">
-        <v>392.2149103541111</v>
+        <v>479.2824450914327</v>
       </c>
       <c r="H23" t="n">
-        <v>73.99179512662049</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I23" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J23" t="n">
         <v>262.6316941403563</v>
@@ -5996,7 +5996,7 @@
         <v>1218.912065406599</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N23" t="n">
         <v>2477.937544449755</v>
@@ -6014,25 +6014,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V23" t="n">
-        <v>3368.526868987454</v>
+        <v>3212.311831484282</v>
       </c>
       <c r="W23" t="n">
-        <v>3015.758213717339</v>
+        <v>3212.311831484282</v>
       </c>
       <c r="X23" t="n">
-        <v>2642.29245545626</v>
+        <v>2838.846073223202</v>
       </c>
       <c r="Y23" t="n">
-        <v>2252.153123480448</v>
+        <v>2448.706741247391</v>
       </c>
     </row>
     <row r="24">
@@ -6054,7 +6054,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G24" t="n">
         <v>220.8126299914996</v>
@@ -6063,28 +6063,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I24" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K24" t="n">
-        <v>141.5996147899769</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L24" t="n">
-        <v>346.4450924122302</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M24" t="n">
-        <v>986.990441879334</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.196134132116</v>
+        <v>1959.71219637598</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.632142884838</v>
+        <v>2119.22450904474</v>
       </c>
       <c r="P24" t="n">
-        <v>2633.599911365674</v>
+        <v>2543.192277525576</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.336852567651</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3298.829398464557</v>
+        <v>130.9122395848824</v>
       </c>
       <c r="C25" t="n">
-        <v>3298.829398464557</v>
+        <v>130.9122395848824</v>
       </c>
       <c r="D25" t="n">
-        <v>3148.712759052221</v>
+        <v>130.9122395848824</v>
       </c>
       <c r="E25" t="n">
-        <v>3000.799665469828</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F25" t="n">
-        <v>2853.909717971917</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G25" t="n">
-        <v>2853.909717971917</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H25" t="n">
-        <v>2699.655074871682</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I25" t="n">
-        <v>2699.655074871682</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J25" t="n">
-        <v>2699.655074871682</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K25" t="n">
-        <v>2800.703004467292</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L25" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M25" t="n">
-        <v>3190.805600087347</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N25" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O25" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P25" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q25" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R25" t="n">
-        <v>3569.111795050427</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S25" t="n">
-        <v>3480.477863294796</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T25" t="n">
-        <v>3480.477863294796</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="U25" t="n">
-        <v>3480.477863294796</v>
+        <v>351.7048187284125</v>
       </c>
       <c r="V25" t="n">
-        <v>3480.477863294796</v>
+        <v>351.7048187284125</v>
       </c>
       <c r="W25" t="n">
-        <v>3480.477863294796</v>
+        <v>351.7048187284125</v>
       </c>
       <c r="X25" t="n">
-        <v>3480.477863294796</v>
+        <v>351.7048187284125</v>
       </c>
       <c r="Y25" t="n">
-        <v>3480.477863294796</v>
+        <v>130.9122395848824</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1728.12460577276</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C26" t="n">
-        <v>1359.162088832348</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D26" t="n">
-        <v>1000.896390225598</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E26" t="n">
-        <v>803.2008151437186</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F26" t="n">
-        <v>392.2149103541111</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G26" t="n">
         <v>392.2149103541111</v>
@@ -6254,22 +6254,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="T26" t="n">
-        <v>3484.789894598736</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U26" t="n">
-        <v>3231.098191343887</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V26" t="n">
-        <v>3231.098191343887</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W26" t="n">
-        <v>2878.329536073773</v>
+        <v>3483.509995353711</v>
       </c>
       <c r="X26" t="n">
-        <v>2504.863777812693</v>
+        <v>3110.044237092631</v>
       </c>
       <c r="Y26" t="n">
-        <v>2114.724445836881</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6306,16 @@
         <v>192.6510469835158</v>
       </c>
       <c r="K27" t="n">
-        <v>522.0794512893251</v>
+        <v>462.2869926505464</v>
       </c>
       <c r="L27" t="n">
-        <v>989.4402867502019</v>
+        <v>599.5165906662396</v>
       </c>
       <c r="M27" t="n">
-        <v>1168.937623104806</v>
+        <v>779.0139270208435</v>
       </c>
       <c r="N27" t="n">
-        <v>1842.143315357588</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O27" t="n">
         <v>2001.655628026347</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.9917951266205</v>
+        <v>539.568883539799</v>
       </c>
       <c r="C28" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="D28" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="E28" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="F28" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="G28" t="n">
-        <v>73.9917951266205</v>
+        <v>370.6327006118921</v>
       </c>
       <c r="H28" t="n">
-        <v>73.9917951266205</v>
+        <v>216.3780575116571</v>
       </c>
       <c r="I28" t="n">
-        <v>73.9917951266205</v>
+        <v>91.86638288598333</v>
       </c>
       <c r="J28" t="n">
         <v>73.9917951266205</v>
@@ -6409,25 +6409,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S28" t="n">
-        <v>1073.926476585963</v>
+        <v>1010.369524792359</v>
       </c>
       <c r="T28" t="n">
-        <v>880.5506924839187</v>
+        <v>1010.369524792359</v>
       </c>
       <c r="U28" t="n">
-        <v>591.3985160615985</v>
+        <v>721.2173483700387</v>
       </c>
       <c r="V28" t="n">
-        <v>591.3985160615985</v>
+        <v>721.2173483700387</v>
       </c>
       <c r="W28" t="n">
-        <v>301.9813460246378</v>
+        <v>721.2173483700387</v>
       </c>
       <c r="X28" t="n">
-        <v>73.9917951266205</v>
+        <v>721.2173483700387</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.9917951266205</v>
+        <v>721.2173483700387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2094.732337045837</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C29" t="n">
-        <v>1725.769820105425</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D29" t="n">
-        <v>1725.769820105425</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E29" t="n">
-        <v>1339.981567507181</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F29" t="n">
-        <v>928.9956627175731</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G29" t="n">
-        <v>511.9078809540005</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H29" t="n">
-        <v>193.68476572651</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I29" t="n">
         <v>73.9917951266205</v>
@@ -6470,7 +6470,7 @@
         <v>1218.912065406599</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N29" t="n">
         <v>2477.937544449755</v>
@@ -6494,19 +6494,19 @@
         <v>3328.574857095564</v>
       </c>
       <c r="U29" t="n">
-        <v>3328.574857095564</v>
+        <v>3159.789836789584</v>
       </c>
       <c r="V29" t="n">
-        <v>3328.574857095564</v>
+        <v>3159.789836789584</v>
       </c>
       <c r="W29" t="n">
-        <v>3244.93726734685</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X29" t="n">
-        <v>2871.47150908577</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y29" t="n">
-        <v>2481.332177109959</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K30" t="n">
-        <v>403.4201994324298</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L30" t="n">
-        <v>540.649797448123</v>
+        <v>278.8292128056701</v>
       </c>
       <c r="M30" t="n">
-        <v>1181.195146915227</v>
+        <v>779.0139270208435</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.400839168009</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O30" t="n">
-        <v>2403.836847920731</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P30" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q30" t="n">
         <v>2656.336852567651</v>
@@ -6643,22 +6643,22 @@
         <v>3699.589756331025</v>
       </c>
       <c r="R31" t="n">
-        <v>3569.111795050428</v>
+        <v>3676.561220935119</v>
       </c>
       <c r="S31" t="n">
-        <v>3442.690992494296</v>
+        <v>3469.120936187525</v>
       </c>
       <c r="T31" t="n">
-        <v>3217.06179580666</v>
+        <v>3243.49173949989</v>
       </c>
       <c r="U31" t="n">
-        <v>3217.06179580666</v>
+        <v>2954.339563077569</v>
       </c>
       <c r="V31" t="n">
-        <v>3217.06179580666</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="W31" t="n">
-        <v>2927.6446257697</v>
+        <v>2699.655074871683</v>
       </c>
       <c r="X31" t="n">
         <v>2699.655074871683</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2452.24623315908</v>
+        <v>1825.601271524436</v>
       </c>
       <c r="C32" t="n">
-        <v>2083.283716218669</v>
+        <v>1456.638754584025</v>
       </c>
       <c r="D32" t="n">
-        <v>1725.018017611918</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E32" t="n">
-        <v>1339.229765013674</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F32" t="n">
-        <v>928.2438602240666</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G32" t="n">
-        <v>511.156078460494</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H32" t="n">
-        <v>193.68476572651</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I32" t="n">
         <v>73.9917951266205</v>
@@ -6707,7 +6707,7 @@
         <v>1218.912065406599</v>
       </c>
       <c r="M32" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N32" t="n">
         <v>2477.937544449755</v>
@@ -6728,22 +6728,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T32" t="n">
-        <v>3543.374718827853</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U32" t="n">
-        <v>3543.374718827853</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V32" t="n">
-        <v>3212.311831484282</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="W32" t="n">
-        <v>3212.311831484282</v>
+        <v>2975.80620182545</v>
       </c>
       <c r="X32" t="n">
-        <v>2838.846073223202</v>
+        <v>2602.34044356437</v>
       </c>
       <c r="Y32" t="n">
-        <v>2838.846073223202</v>
+        <v>2212.201111588558</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>260.2588666468723</v>
       </c>
       <c r="L33" t="n">
-        <v>397.4884646625654</v>
+        <v>764.62040651299</v>
       </c>
       <c r="M33" t="n">
-        <v>1038.033814129669</v>
+        <v>1168.937623104806</v>
       </c>
       <c r="N33" t="n">
-        <v>1711.239506382451</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O33" t="n">
-        <v>2209.632142884838</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P33" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q33" t="n">
         <v>2656.336852567651</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.9917951266205</v>
+        <v>97.0203305225256</v>
       </c>
       <c r="C34" t="n">
         <v>73.9917951266205</v>
@@ -6883,25 +6883,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S34" t="n">
-        <v>1071.44720734048</v>
+        <v>866.4861918383679</v>
       </c>
       <c r="T34" t="n">
-        <v>845.818010652845</v>
+        <v>640.8569951507327</v>
       </c>
       <c r="U34" t="n">
-        <v>556.6658342305248</v>
+        <v>351.7048187284125</v>
       </c>
       <c r="V34" t="n">
-        <v>301.9813460246378</v>
+        <v>97.0203305225256</v>
       </c>
       <c r="W34" t="n">
-        <v>301.9813460246378</v>
+        <v>97.0203305225256</v>
       </c>
       <c r="X34" t="n">
-        <v>73.9917951266205</v>
+        <v>97.0203305225256</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.9917951266205</v>
+        <v>97.0203305225256</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2004.451771162908</v>
+        <v>1825.601271524436</v>
       </c>
       <c r="C35" t="n">
-        <v>1646.119432884795</v>
+        <v>1456.638754584025</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.853734278045</v>
+        <v>1456.638754584025</v>
       </c>
       <c r="E35" t="n">
-        <v>902.0654816798005</v>
+        <v>1070.85050198578</v>
       </c>
       <c r="F35" t="n">
-        <v>491.079576890193</v>
+        <v>659.8645971961728</v>
       </c>
       <c r="G35" t="n">
-        <v>73.99179512662049</v>
+        <v>242.7768154326002</v>
       </c>
       <c r="H35" t="n">
         <v>73.99179512662049</v>
@@ -6935,16 +6935,16 @@
         <v>73.99179512662049</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403559</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L35" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M35" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N35" t="n">
         <v>2477.937544449755</v>
@@ -6968,19 +6968,19 @@
         <v>3328.574857095564</v>
       </c>
       <c r="U35" t="n">
-        <v>3074.883153840715</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="V35" t="n">
-        <v>2743.820266497144</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="W35" t="n">
-        <v>2391.05161122703</v>
+        <v>2975.80620182545</v>
       </c>
       <c r="X35" t="n">
-        <v>2391.05161122703</v>
+        <v>2602.34044356437</v>
       </c>
       <c r="Y35" t="n">
-        <v>2391.05161122703</v>
+        <v>2212.201111588558</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>73.99179512662049</v>
       </c>
       <c r="K36" t="n">
-        <v>141.5996147899769</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L36" t="n">
-        <v>645.9611546560947</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.506504123198</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N36" t="n">
-        <v>1485.163245775862</v>
+        <v>1760.484767905933</v>
       </c>
       <c r="O36" t="n">
-        <v>2034.599254528584</v>
+        <v>2309.920776658655</v>
       </c>
       <c r="P36" t="n">
-        <v>2458.56702300942</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q36" t="n">
         <v>2656.336852567651</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.99179512662049</v>
+        <v>3143.219571837599</v>
       </c>
       <c r="C37" t="n">
-        <v>73.99179512662049</v>
+        <v>2974.283388909692</v>
       </c>
       <c r="D37" t="n">
-        <v>73.99179512662049</v>
+        <v>2824.166749497356</v>
       </c>
       <c r="E37" t="n">
-        <v>73.99179512662049</v>
+        <v>2824.166749497356</v>
       </c>
       <c r="F37" t="n">
-        <v>73.99179512662049</v>
+        <v>2824.166749497356</v>
       </c>
       <c r="G37" t="n">
-        <v>73.99179512662049</v>
+        <v>2824.166749497356</v>
       </c>
       <c r="H37" t="n">
-        <v>73.99179512662049</v>
+        <v>2824.166749497356</v>
       </c>
       <c r="I37" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="J37" t="n">
-        <v>73.99179512662049</v>
+        <v>2699.655074871682</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0397247222299</v>
+        <v>2800.703004467292</v>
       </c>
       <c r="L37" t="n">
-        <v>359.8727196230478</v>
+        <v>2985.53599936811</v>
       </c>
       <c r="M37" t="n">
-        <v>565.1423203422853</v>
+        <v>3190.805600087347</v>
       </c>
       <c r="N37" t="n">
-        <v>770.9656851783891</v>
+        <v>3396.628964923451</v>
       </c>
       <c r="O37" t="n">
-        <v>945.0605805669875</v>
+        <v>3570.72386031205</v>
       </c>
       <c r="P37" t="n">
-        <v>1070.508157165603</v>
+        <v>3696.171436910665</v>
       </c>
       <c r="Q37" t="n">
-        <v>1073.926476585963</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R37" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="S37" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="T37" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="U37" t="n">
-        <v>1073.926476585963</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="V37" t="n">
-        <v>993.8395600353683</v>
+        <v>3569.111795050427</v>
       </c>
       <c r="W37" t="n">
-        <v>704.4223899984077</v>
+        <v>3324.868036667839</v>
       </c>
       <c r="X37" t="n">
-        <v>476.4328391003903</v>
+        <v>3324.868036667839</v>
       </c>
       <c r="Y37" t="n">
-        <v>255.6402599568602</v>
+        <v>3324.868036667839</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1916.217283289125</v>
+        <v>1611.861580161477</v>
       </c>
       <c r="C38" t="n">
-        <v>1547.254766348713</v>
+        <v>1242.899063221065</v>
       </c>
       <c r="D38" t="n">
-        <v>1188.989067741963</v>
+        <v>884.633364614315</v>
       </c>
       <c r="E38" t="n">
-        <v>803.2008151437186</v>
+        <v>498.8451120160708</v>
       </c>
       <c r="F38" t="n">
-        <v>392.2149103541111</v>
+        <v>498.8451120160708</v>
       </c>
       <c r="G38" t="n">
-        <v>392.2149103541111</v>
+        <v>498.8451120160708</v>
       </c>
       <c r="H38" t="n">
-        <v>73.9917951266205</v>
+        <v>180.6219967885802</v>
       </c>
       <c r="I38" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L38" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M38" t="n">
         <v>1850.62987638991</v>
@@ -7199,25 +7199,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S38" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T38" t="n">
-        <v>3328.574857095564</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U38" t="n">
-        <v>3328.574857095564</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V38" t="n">
-        <v>3328.574857095564</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W38" t="n">
-        <v>2975.80620182545</v>
+        <v>2762.06651046249</v>
       </c>
       <c r="X38" t="n">
-        <v>2692.956455329058</v>
+        <v>2388.600752201411</v>
       </c>
       <c r="Y38" t="n">
-        <v>2302.817123353247</v>
+        <v>1998.461420225599</v>
       </c>
     </row>
     <row r="39">
@@ -7239,7 +7239,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G39" t="n">
         <v>220.8126299914996</v>
@@ -7248,28 +7248,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I39" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J39" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K39" t="n">
-        <v>141.599614789977</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L39" t="n">
-        <v>645.9611546560948</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M39" t="n">
-        <v>825.4584910106987</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N39" t="n">
-        <v>1498.66418326348</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O39" t="n">
-        <v>2048.100192016203</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q39" t="n">
         <v>2656.336852567651</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.9917951266205</v>
+        <v>671.4854326121927</v>
       </c>
       <c r="C40" t="n">
-        <v>73.9917951266205</v>
+        <v>502.5492496842858</v>
       </c>
       <c r="D40" t="n">
-        <v>73.9917951266205</v>
+        <v>352.43261027195</v>
       </c>
       <c r="E40" t="n">
-        <v>73.9917951266205</v>
+        <v>204.5195166895569</v>
       </c>
       <c r="F40" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G40" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H40" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I40" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J40" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K40" t="n">
         <v>175.0397247222299</v>
@@ -7360,22 +7360,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T40" t="n">
-        <v>1066.875583411015</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U40" t="n">
-        <v>1066.875583411015</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V40" t="n">
-        <v>812.1910952051285</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W40" t="n">
-        <v>522.7739251681679</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="X40" t="n">
-        <v>294.7843742701506</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.9917951266205</v>
+        <v>853.1338974424324</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1034.912596435357</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>665.9500794949456</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>665.9500794949456</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>280.1618268967014</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F41" t="n">
-        <v>280.1618268967014</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G41" t="n">
-        <v>280.1618268967014</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>242.5828808341002</v>
       </c>
       <c r="K41" t="n">
-        <v>646.0499938541448</v>
+        <v>325.1460354086917</v>
       </c>
       <c r="L41" t="n">
-        <v>785.3786496953969</v>
+        <v>877.9592936548897</v>
       </c>
       <c r="M41" t="n">
-        <v>1417.096460678707</v>
+        <v>1166.769932166875</v>
       </c>
       <c r="N41" t="n">
-        <v>1852.489058587071</v>
+        <v>1794.07760022672</v>
       </c>
       <c r="O41" t="n">
-        <v>2022.65808390403</v>
+        <v>2341.238804993796</v>
       </c>
       <c r="P41" t="n">
-        <v>2451.973130243323</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2151.286341942363</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1798.517686672249</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1425.051928411169</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y41" t="n">
-        <v>1034.912596435357</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1028.225718003799</v>
+        <v>967.3646662469704</v>
       </c>
       <c r="C42" t="n">
-        <v>853.7726887226717</v>
+        <v>792.9116369658434</v>
       </c>
       <c r="D42" t="n">
-        <v>704.8382790614204</v>
+        <v>643.9772273045921</v>
       </c>
       <c r="E42" t="n">
-        <v>545.6008240559649</v>
+        <v>484.7397722991366</v>
       </c>
       <c r="F42" t="n">
-        <v>399.0662660828499</v>
+        <v>338.2052143260216</v>
       </c>
       <c r="G42" t="n">
-        <v>261.6248684420718</v>
+        <v>200.7638166852435</v>
       </c>
       <c r="H42" t="n">
-        <v>160.7088905868764</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I42" t="n">
-        <v>114.8040335771927</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>114.8040335771927</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>444.232437883002</v>
+        <v>383.3713861261737</v>
       </c>
       <c r="L42" t="n">
-        <v>581.4620358986951</v>
+        <v>887.7329259922915</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.007385365799</v>
+        <v>1528.278275459395</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.309998677736</v>
+        <v>1747.448946920907</v>
       </c>
       <c r="O42" t="n">
-        <v>2357.746007430458</v>
+        <v>2296.88495567363</v>
       </c>
       <c r="P42" t="n">
-        <v>2466.435634957756</v>
+        <v>2405.574583200927</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2636.288039261395</v>
       </c>
       <c r="R42" t="n">
-        <v>2676.037191420409</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S42" t="n">
-        <v>2526.570402283044</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T42" t="n">
-        <v>2329.581106443132</v>
+        <v>2268.720054686304</v>
       </c>
       <c r="U42" t="n">
-        <v>2101.442318954298</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V42" t="n">
-        <v>1866.290210722555</v>
+        <v>1805.429158965727</v>
       </c>
       <c r="W42" t="n">
-        <v>1612.052853994353</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X42" t="n">
-        <v>1404.201353788821</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y42" t="n">
-        <v>1196.441055023867</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>362.0194492689761</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="C43" t="n">
-        <v>362.0194492689761</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="D43" t="n">
-        <v>362.0194492689761</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="E43" t="n">
-        <v>362.0194492689761</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="F43" t="n">
-        <v>362.0194492689761</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="G43" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>154.9909114159739</v>
       </c>
       <c r="L43" t="n">
-        <v>339.8239063167919</v>
+        <v>339.8239063167918</v>
       </c>
       <c r="M43" t="n">
-        <v>545.0935070360293</v>
+        <v>545.0935070360292</v>
       </c>
       <c r="N43" t="n">
-        <v>750.9168718721332</v>
+        <v>750.916871872133</v>
       </c>
       <c r="O43" t="n">
-        <v>925.0117672607316</v>
+        <v>925.0117672607314</v>
       </c>
       <c r="P43" t="n">
         <v>1050.459343859347</v>
       </c>
       <c r="Q43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="S43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="T43" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="U43" t="n">
-        <v>1053.877663279707</v>
+        <v>764.7254868573862</v>
       </c>
       <c r="V43" t="n">
-        <v>1053.877663279707</v>
+        <v>510.0409986514993</v>
       </c>
       <c r="W43" t="n">
-        <v>764.460493242746</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="X43" t="n">
-        <v>764.460493242746</v>
+        <v>220.6238286145387</v>
       </c>
       <c r="Y43" t="n">
-        <v>543.6679140992159</v>
+        <v>220.6238286145387</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1468.591927705883</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C44" t="n">
-        <v>1468.591927705883</v>
+        <v>1601.952160546616</v>
       </c>
       <c r="D44" t="n">
-        <v>1468.591927705883</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E44" t="n">
-        <v>1082.803675107639</v>
+        <v>857.8982093416214</v>
       </c>
       <c r="F44" t="n">
-        <v>671.8177703180313</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G44" t="n">
-        <v>372.166097047855</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
         <v>242.5828808341002</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6499951733676</v>
+        <v>646.0499938541448</v>
       </c>
       <c r="L44" t="n">
-        <v>1094.463253419566</v>
+        <v>1198.863252100343</v>
       </c>
       <c r="M44" t="n">
-        <v>1281.162666244972</v>
+        <v>1599.743387334739</v>
       </c>
       <c r="N44" t="n">
-        <v>1475.496879136953</v>
+        <v>1794.07760022672</v>
       </c>
       <c r="O44" t="n">
-        <v>2022.65808390403</v>
+        <v>2341.238804993796</v>
       </c>
       <c r="P44" t="n">
-        <v>2451.973130243323</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2482.349229285934</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2228.657526031085</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2228.657526031085</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>2228.657526031085</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X44" t="n">
-        <v>1855.191767770005</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y44" t="n">
-        <v>1855.191767770005</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>643.9772273045921</v>
       </c>
       <c r="E45" t="n">
-        <v>484.7397722991367</v>
+        <v>484.7397722991366</v>
       </c>
       <c r="F45" t="n">
         <v>338.2052143260216</v>
@@ -7719,31 +7719,31 @@
         <v>200.7638166852435</v>
       </c>
       <c r="H45" t="n">
-        <v>99.84783883004809</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>172.6022336772597</v>
       </c>
       <c r="K45" t="n">
-        <v>121.5508014837209</v>
+        <v>502.030637983069</v>
       </c>
       <c r="L45" t="n">
-        <v>625.9123413498387</v>
+        <v>639.2602359987623</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.457690816942</v>
+        <v>1279.805585465866</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.002090843953</v>
+        <v>1822.094502051332</v>
       </c>
       <c r="O45" t="n">
-        <v>2483.438099596675</v>
+        <v>1981.606814720092</v>
       </c>
       <c r="P45" t="n">
-        <v>2613.551098059418</v>
+        <v>2405.574583200927</v>
       </c>
       <c r="Q45" t="n">
         <v>2636.288039261395</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>147.6471863815347</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>154.9909114159739</v>
       </c>
       <c r="L46" t="n">
-        <v>339.8239063167919</v>
+        <v>339.8239063167918</v>
       </c>
       <c r="M46" t="n">
-        <v>545.0935070360293</v>
+        <v>545.0935070360292</v>
       </c>
       <c r="N46" t="n">
-        <v>750.9168718721332</v>
+        <v>750.916871872133</v>
       </c>
       <c r="O46" t="n">
-        <v>925.0117672607316</v>
+        <v>925.0117672607314</v>
       </c>
       <c r="P46" t="n">
         <v>1050.459343859347</v>
       </c>
       <c r="Q46" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.877663279707</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="S46" t="n">
-        <v>846.437378532112</v>
+        <v>1053.877663279706</v>
       </c>
       <c r="T46" t="n">
-        <v>846.437378532112</v>
+        <v>887.1968164855321</v>
       </c>
       <c r="U46" t="n">
-        <v>557.2852021097917</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>557.2852021097917</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>557.2852021097917</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>329.2956512117744</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>329.2956512117744</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>275.0442842992663</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,13 +8936,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>147.6308118193902</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263477</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906598975</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>366.5683748125778</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>266.9038067709061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>312.5708431852199</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>186.34014943522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>68.29886828945467</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.32084226272514</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>204.0688141451255</v>
       </c>
       <c r="L27" t="n">
-        <v>333.4658964092764</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10191,13 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>323.9266443036056</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>122.2963999168133</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,22 +10431,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>227.0907881183959</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>342.303357407704</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>217.1611183633543</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.8008973295494</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>6.233205181928724</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>378.0407240669703</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>271.5490676400835</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>103.1426522086652</v>
       </c>
       <c r="N41" t="n">
-        <v>243.4933181983663</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>391.5614865245183</v>
+        <v>20.72114122105913</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>218.6908684491676</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>216.3441640494846</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>6.233205181928724</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>473.6238973478247</v>
+        <v>347.1032070028305</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.63976862166169</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,16 +22547,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>227.9773678869639</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.6868417432373</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3564241629037</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22720,7 +22720,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>128.7978706885052</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,25 +22784,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>45.70958740150814</v>
       </c>
       <c r="H5" t="n">
-        <v>125.577771792024</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22841,7 +22841,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22939,10 +22939,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22951,7 +22951,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -22960,10 +22960,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -22993,13 +22993,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U7" t="n">
-        <v>111.3375811832651</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23030,16 +23030,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23069,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>134.969959995555</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,19 +23182,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>96.5070324263497</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23233,19 +23233,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.0681335233688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,19 +23312,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>224.2802725817785</v>
       </c>
       <c r="V11" t="n">
-        <v>163.8572211747444</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,25 +23419,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>120.50172456543</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,28 +23458,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>191.609150650535</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.679930784417195</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>353.8818024461474</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,22 +23659,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>101.8490239356726</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>232.3293359964843</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>304.9426779735207</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>87.69816217477255</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,10 +23908,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176898</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>63.09635076551764</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,19 +23972,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>323.0961252717098</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.2234253653315</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,22 +24175,22 @@
         <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>96.48273087093133</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>60.69561706280464</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>80.34042215652715</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>32.29918150394207</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>90.08272263288993</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I25" t="n">
         <v>123.2665578794171</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S25" t="n">
-        <v>117.6182894620442</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,13 +24449,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>186.2117507412017</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24494,16 +24494,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>135.3220053498722</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,13 +24616,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>129.1731816677915</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001187</v>
+        <v>142.4444996244512</v>
       </c>
       <c r="T28" t="n">
-        <v>31.9308784597354</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24695,10 +24695,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>84.0576161193807</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>266.4397548661864</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>106.3749316258448</v>
       </c>
       <c r="S31" t="n">
-        <v>80.20928736954802</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>187.585871517763</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7442844685714363</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>144.4485710566818</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25123,7 +25123,7 @@
         <v>129.1731816677915</v>
       </c>
       <c r="S34" t="n">
-        <v>202.9114053470912</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>10.52387687567597</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25169,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>147.9437139722957</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938906</v>
@@ -25208,19 +25208,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>17.6958418817692</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>205.3658819001187</v>
@@ -25369,16 +25369,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>172.8515959387398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>44.72167753782833</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
@@ -25409,7 +25409,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938906</v>
+        <v>12.93214124855041</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25439,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>89.70985164704177</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>16.19860367562421</v>
       </c>
       <c r="G40" t="n">
         <v>166.9207765545704</v>
@@ -25600,19 +25600,19 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T40" t="n">
-        <v>216.3925204775611</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,13 +25637,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>88.92504442304187</v>
       </c>
       <c r="H41" t="n">
-        <v>91.08422744964207</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938906</v>
@@ -25679,16 +25679,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.63717044967748</v>
+        <v>1.906738228337929</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
         <v>123.2665578794171</v>
@@ -25840,10 +25840,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>23.87727444160384</v>
       </c>
       <c r="G44" t="n">
-        <v>116.2617474084623</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938906</v>
@@ -25916,16 +25916,16 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>74.47965858306931</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,22 +26071,22 @@
         <v>129.1731816677915</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>58.3588663945261</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729397.9021790257</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729397.9021790256</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>729397.9021790258</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741902.0698922939</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.5863150558</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842700.5863150562</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.586315056</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741902.0698922937</v>
+        <v>741902.0698922935</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741902.0698922938</v>
+        <v>741902.0698922937</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="E2" t="n">
+        <v>318067.8710173335</v>
+      </c>
+      <c r="F2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="E2" t="n">
-        <v>318067.8710173334</v>
-      </c>
-      <c r="F2" t="n">
-        <v>328930.1971346181</v>
-      </c>
       <c r="G2" t="n">
-        <v>371509.2212626559</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626559</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="I2" t="n">
-        <v>371509.2212626556</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="J2" t="n">
         <v>371509.2212626556</v>
@@ -26344,13 +26344,13 @@
         <v>371509.2212626557</v>
       </c>
       <c r="M2" t="n">
-        <v>371509.2212626557</v>
+        <v>371509.2212626556</v>
       </c>
       <c r="N2" t="n">
         <v>371509.2212626556</v>
       </c>
       <c r="O2" t="n">
-        <v>328930.1971346177</v>
+        <v>328930.1971346174</v>
       </c>
       <c r="P2" t="n">
         <v>328930.1971346175</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.82672692972119e-10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>170524.6254696466</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68688.48743806485</v>
+        <v>236417.6520004548</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>26486.66836975815</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35067.62056791528</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="H4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="I4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="J4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="K4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="L4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="M4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="N4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="O4" t="n">
-        <v>26486.66836975826</v>
+        <v>24757.22927901079</v>
       </c>
       <c r="P4" t="n">
-        <v>26486.66836975825</v>
+        <v>24757.22927901079</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>53934.4451708468</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360139</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>69171.54328360135</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="J5" t="n">
         <v>69171.54328360136</v>
@@ -26503,13 +26503,13 @@
         <v>69171.54328360135</v>
       </c>
       <c r="N5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="O5" t="n">
-        <v>53934.44517084677</v>
+        <v>53934.44517084675</v>
       </c>
       <c r="P5" t="n">
-        <v>53934.44517084677</v>
+        <v>53934.44517084675</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393232.1540643296</v>
+        <v>-390703.8329008871</v>
       </c>
       <c r="C6" t="n">
-        <v>196735.7251502148</v>
+        <v>199264.0463136572</v>
       </c>
       <c r="D6" t="n">
-        <v>196735.7251502148</v>
+        <v>199264.0463136573</v>
       </c>
       <c r="E6" t="n">
-        <v>230363.3251502146</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="F6" t="n">
-        <v>77984.45812436653</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="G6" t="n">
-        <v>198581.5699730744</v>
+        <v>33145.48687221333</v>
       </c>
       <c r="H6" t="n">
-        <v>267270.0574111404</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="I6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="J6" t="n">
-        <v>90846.83821854593</v>
+        <v>93139.91968007508</v>
       </c>
       <c r="K6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="L6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="M6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.138872668</v>
       </c>
       <c r="N6" t="n">
-        <v>267270.0574111389</v>
+        <v>269563.138872668</v>
       </c>
       <c r="O6" t="n">
-        <v>248509.0835940127</v>
+        <v>250238.5226847599</v>
       </c>
       <c r="P6" t="n">
-        <v>248509.0835940125</v>
+        <v>250238.5226847599</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380651</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
         <v>593.4761003380634</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="E4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
         <v>924.8974390827563</v>
@@ -26808,7 +26808,7 @@
         <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827561</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="J4" t="n">
         <v>924.8974390827563</v>
@@ -26823,13 +26823,13 @@
         <v>924.8974390827561</v>
       </c>
       <c r="N4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209782</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>215.7324361209768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282005</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282005</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31753,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31929,28 +31929,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38583356919825</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055158</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651562</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937401</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712531</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822519</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426701</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457577</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810517</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985301</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182841</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847383</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512822</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842454</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671574</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080804</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784626</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784131</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490379</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790241</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441091</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685361</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522795</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338904</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,10 +35568,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
         <v>146.3614835535656</v>
@@ -35580,10 +35580,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391276</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>343.9279965587663</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8879043605652</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>111.8528537874005</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793668</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040863</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588832</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312057</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>547.878815574804</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502855</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>376.6913093237332</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36042,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493115</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854534</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452619</v>
+        <v>68.29072693268327</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>647.015504512226</v>
+        <v>493.8812839474461</v>
       </c>
       <c r="N21" t="n">
         <v>200.663375406731</v>
       </c>
       <c r="O21" t="n">
-        <v>347.4636975854824</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>68.29072693268327</v>
       </c>
       <c r="L24" t="n">
-        <v>206.9146238608619</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M24" t="n">
         <v>647.015504512226</v>
@@ -36449,13 +36449,13 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472374</v>
+        <v>114.2874495374489</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>552.6880856233093</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588822</v>
+        <v>433.6515619588824</v>
       </c>
       <c r="Q26" t="n">
         <v>247.6524856312121</v>
@@ -36674,10 +36674,10 @@
         <v>119.8578301584801</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452619</v>
+        <v>272.3595410778087</v>
       </c>
       <c r="L27" t="n">
-        <v>472.0816519806837</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M27" t="n">
         <v>181.3104407622262</v>
@@ -36686,7 +36686,7 @@
         <v>680.0057497502846</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502624</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927636</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>332.7559639452619</v>
+        <v>68.29072693268327</v>
       </c>
       <c r="L30" t="n">
         <v>138.6157555714072</v>
       </c>
       <c r="M30" t="n">
-        <v>647.015504512226</v>
+        <v>505.2370850658318</v>
       </c>
       <c r="N30" t="n">
         <v>680.0057497502846</v>
@@ -36926,10 +36926,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P30" t="n">
-        <v>232.0839024696397</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>68.29072693268327</v>
       </c>
       <c r="L33" t="n">
-        <v>138.6157555714072</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M33" t="n">
-        <v>647.015504512226</v>
+        <v>408.4012288806221</v>
       </c>
       <c r="N33" t="n">
         <v>680.0057497502846</v>
       </c>
       <c r="O33" t="n">
-        <v>503.4269055579664</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927636</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L36" t="n">
         <v>509.4561008748664</v>
       </c>
       <c r="M36" t="n">
-        <v>647.015504512226</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N36" t="n">
-        <v>200.663375406731</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927636</v>
+        <v>326.9486209161807</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7675046042731</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748664</v>
@@ -37631,16 +37631,16 @@
         <v>181.3104407622262</v>
       </c>
       <c r="N39" t="n">
-        <v>680.0057497502846</v>
+        <v>578.7040994737013</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P39" t="n">
-        <v>381.3365701929099</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0438950105728</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>190.545352539127</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040854</v>
+        <v>83.39712583292066</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012648</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M41" t="n">
-        <v>638.098798973041</v>
+        <v>291.7279176888737</v>
       </c>
       <c r="N41" t="n">
-        <v>439.7905029377412</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O41" t="n">
-        <v>171.887904360564</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588822</v>
+        <v>111.8528537873996</v>
       </c>
       <c r="Q41" t="n">
         <v>247.6524856312121</v>
@@ -37862,13 +37862,13 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L42" t="n">
-        <v>138.6157555714072</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M42" t="n">
         <v>647.015504512226</v>
       </c>
       <c r="N42" t="n">
-        <v>592.2248619312493</v>
+        <v>221.3845166277902</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269919</v>
@@ -38017,13 +38017,13 @@
         <v>190.545352539127</v>
       </c>
       <c r="K44" t="n">
-        <v>302.0879942820883</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517152</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802085</v>
+        <v>404.9294295296932</v>
       </c>
       <c r="N44" t="n">
         <v>196.2971847393749</v>
@@ -38032,7 +38032,7 @@
         <v>552.6880856233093</v>
       </c>
       <c r="P44" t="n">
-        <v>433.6515619588822</v>
+        <v>111.8528537873996</v>
       </c>
       <c r="Q44" t="n">
         <v>247.6524856312121</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L45" t="n">
-        <v>509.4561008748664</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M45" t="n">
         <v>647.015504512226</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2872727545557</v>
+        <v>547.7665824095615</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P45" t="n">
-        <v>131.4272711744881</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1252055.780101481</v>
+        <v>1230991.550695068</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855586</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10278943.77282929</v>
+        <v>11336344.66186955</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>27.02952366315273</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>144.8337594243336</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.13267830033007</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>145.0419193445131</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>334.58170967322</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.06378739764988</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>264.8835242011452</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.18719652447322</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>145.7627116979832</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>264.8835242011452</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.73964677811949</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>64.02545868683401</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>29.85616066906297</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.2386603312939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.54872654977478</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>88.23851788996306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>90.96381469464134</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>14.73664328357096</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>91.79970579514244</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>75.8096094545451</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>113.4617930109227</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.5953869016533</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>75.57809216555836</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>105.0903281190975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>98.63464006819774</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>194.8108346135102</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1623.178216428726</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1623.178216428726</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1623.178216428726</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1237.389963830482</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>826.4040590408745</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>408.4402509390613</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>81.24553097506418</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2550.852364326976</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2332.217697299039</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2078.455911937131</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1747.39302459356</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404538</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1623.178216428726</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>710.8232485495353</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1679.782215419422</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1310.819698479011</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>952.5539998722602</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>391.9043047226068</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2323.103882821189</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2675.872538091303</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S8" t="n">
-        <v>2675.872538091303</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2675.872538091303</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2675.872538091303</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2675.872538091303</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2323.103882821189</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.103882821189</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.103882821189</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.910013048764</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>663.910013048764</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>663.910013048764</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.553283416327</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>1496.590766475915</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.325067869165</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>752.5368152709202</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>341.5509104813127</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>73.9917951266205</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3015.75821371734</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1205.938327510047</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.2268574478157</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>221.2268574478157</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>221.2268574478157</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>221.2268574478157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>221.2268574478157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>221.2268574478157</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>943.4485153053656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>736.008230557771</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>510.3790338701359</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>221.2268574478157</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>221.2268574478157</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>221.2268574478157</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2268574478157</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.2268574478157</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1865.553283416327</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>1496.590766475915</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.325067869165</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>752.5368152709202</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>341.5509104813127</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>341.5509104813127</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3015.75821371734</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893252</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.3308737797817</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C16" t="n">
-        <v>819.3946908518748</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="D16" t="n">
-        <v>669.278051439539</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="E16" t="n">
-        <v>521.3649578571459</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="F16" t="n">
-        <v>521.3649578571459</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="G16" t="n">
-        <v>352.7581128525293</v>
+        <v>161.8892719520374</v>
       </c>
       <c r="H16" t="n">
-        <v>198.5034697522943</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585963</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585963</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585963</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585963</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585963</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>1073.926476585963</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5560,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.729020889808</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>277.7928379619011</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>277.7928379619011</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>277.7928379619011</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>277.7928379619011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>277.7928379619011</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>127.3748295098444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X19" t="n">
-        <v>446.729020889808</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.729020889808</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>121.0036839348058</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229244</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y22" t="n">
-        <v>981.5095496229244</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="23">
@@ -5971,31 +5971,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>731.6365520183392</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>952.4291311618693</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>731.6365520183392</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,43 +6214,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,40 +6448,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3941.006808105545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3772.070625177638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3621.953985765302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3474.040892182909</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4571.437402977332</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>358.1193886911142</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6894,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,10 +6940,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,7 +6952,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>843.7395088768803</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C37" t="n">
-        <v>674.8033259489735</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D37" t="n">
-        <v>674.8033259489735</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>526.8902323665803</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>380.00028486867</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>211.8249631884906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>843.7395088768803</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X37" t="n">
-        <v>843.7395088768803</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7395088768803</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429516</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>644.1080300429516</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>644.1080300429516</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>879.2482765610114</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C43" t="n">
-        <v>710.3120936331045</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="D43" t="n">
-        <v>560.1954542207687</v>
+        <v>321.4716922806167</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>173.5585986982236</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>1387.841167119728</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X43" t="n">
-        <v>1281.689320534781</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y43" t="n">
-        <v>1060.896741391251</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7669,10 +7669,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>982.4072870789938</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>813.4711041510869</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>663.3544647387512</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>515.4413711563581</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>991.1425362135525</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>736.4580480076656</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>447.040877970705</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X46" t="n">
-        <v>447.040877970705</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>1164.055751909234</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,25 +8774,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>48.1056061726409</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264079</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>159.0121003135244</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>124.9017925817085</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.99007165458424</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>33.41461517716183</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.08841053406432</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>148.0333797447915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.6447836574641</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>6.949384971249344</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.15735987407038</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.0923334038178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.88836968070211</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>80.56308479520901</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.59331985064341</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.0667464684376</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>163.8991254338649</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>134.7458406943958</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6844047393603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>53.6213422277888</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>91.43721164408274</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>35.45203535661346</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>29.8256611212779</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>69.84295585737289</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>120.6193272699397</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>46.78640795473351</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>91.42651778506715</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729397.9021790257</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729397.9021790256</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729397.9021790256</v>
+        <v>1020681.761978348</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>842700.5863150561</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>842700.586315056</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322282</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626556</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626556</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
@@ -26343,19 +26343,19 @@
         <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="M2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="N2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="P2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188428</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965292</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>35944.74664026682</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>32774.53910638623</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26459,7 +26459,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-390703.8329008873</v>
+        <v>-395744.7611744241</v>
       </c>
       <c r="C6" t="n">
-        <v>199264.0463136572</v>
+        <v>194223.1180401204</v>
       </c>
       <c r="D6" t="n">
-        <v>199264.0463136572</v>
+        <v>194223.1180401203</v>
       </c>
       <c r="E6" t="n">
-        <v>21416.37025382527</v>
+        <v>-217293.5335261569</v>
       </c>
       <c r="F6" t="n">
-        <v>269563.138872668</v>
+        <v>307866.502950739</v>
       </c>
       <c r="G6" t="n">
-        <v>45078.20494455032</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="H6" t="n">
-        <v>308841.0942104609</v>
+        <v>307866.5029507391</v>
       </c>
       <c r="I6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.5029507393</v>
       </c>
       <c r="J6" t="n">
-        <v>132417.8750178677</v>
+        <v>131443.2837581462</v>
       </c>
       <c r="K6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="L6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="M6" t="n">
-        <v>246388.0383208079</v>
+        <v>173065.487716902</v>
       </c>
       <c r="N6" t="n">
-        <v>308841.0942104608</v>
+        <v>307866.5029507393</v>
       </c>
       <c r="O6" t="n">
-        <v>238976.2093605494</v>
+        <v>307866.5029507392</v>
       </c>
       <c r="P6" t="n">
-        <v>308841.094210461</v>
+        <v>307866.5029507391</v>
       </c>
     </row>
   </sheetData>
@@ -26740,28 +26740,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26770,13 +26770,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.732436120977</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>29.58195338463798</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>236.8884507277486</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.33357018799749</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622263</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>248.7689815793721</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>366.105515245049</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230991.550695068</v>
+        <v>1248060.423160248</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>2990033.63541173</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11336344.66186955</v>
+        <v>10495671.86531855</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>395.0053657698354</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>144.8337594243336</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>9.0186500846252</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>145.0419193445131</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>91.25391157485913</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>377.2644386030071</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14483238681421</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.18719652447322</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.0094263875339</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>38.9255661739452</v>
       </c>
       <c r="H16" t="n">
-        <v>64.02545868683401</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>87.69502478598764</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.6534898356754</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>23.54872654977478</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.56876306769562</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>90.96381469464134</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>11.3540950504131</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>91.79970579514244</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>186.8337028840661</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>75.8096094545451</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>121.4557673726582</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>58.40168825977442</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.57809216555836</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.63464006819774</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>863.9242055694017</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>452.9383007797941</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2550.852364326976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2332.217697299039</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2078.455911937131</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1747.39302459356</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1394.624369323446</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.624369323446</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>210.965822962985</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>210.965822962985</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>210.965822962985</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>63.05272938059193</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.782215419422</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C5" t="n">
-        <v>1310.819698479011</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D5" t="n">
-        <v>952.5539998722602</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>1526.329725433337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,22 +4655,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>957.4466652737744</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>588.4841483333628</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>588.4841483333628</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>588.4841483333628</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>588.4841483333628</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.900558318119</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,25 +5299,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330.8254548799443</v>
+        <v>692.9901170420334</v>
       </c>
       <c r="C16" t="n">
-        <v>161.8892719520374</v>
+        <v>692.9901170420334</v>
       </c>
       <c r="D16" t="n">
-        <v>161.8892719520374</v>
+        <v>542.8734776296976</v>
       </c>
       <c r="E16" t="n">
-        <v>161.8892719520374</v>
+        <v>394.9603840473045</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8892719520374</v>
+        <v>248.0704365493941</v>
       </c>
       <c r="G16" t="n">
-        <v>161.8892719520374</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227918</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169049</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799443</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="X16" t="n">
-        <v>330.8254548799443</v>
+        <v>874.6385818722731</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.8254548799443</v>
+        <v>874.6385818722731</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5536,28 +5536,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>799.6537879979912</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>630.7176050700843</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>480.6009656577486</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>332.6878720753555</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>185.7979245774451</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1305.326886885503</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1016.198248099061</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>761.5137598931742</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>472.0965898562135</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,19 +5767,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>289.9398668627127</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>121.0036839348058</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>272.964375390212</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>126.0744278923017</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364826</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929525</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5977,22 +5977,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1044.311772267568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>952.4291311618693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.6365520183392</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6429,7 +6429,7 @@
         <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6445,43 +6445,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>571.6642370999739</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,16 +6718,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.0324822735073</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C34" t="n">
-        <v>506.0324822735073</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>506.0324822735073</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>358.1193886911142</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6900,10 +6900,10 @@
         <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,31 +6931,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>468.5954956259884</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>392.0201325405893</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>696.5850465240057</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X37" t="n">
-        <v>468.5954956259884</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y37" t="n">
-        <v>468.5954956259884</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,16 +7192,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1439.9246662551</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>321.4716922806167</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>173.5585986982236</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>471.5883316929525</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.4072870789938</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>813.4711041510869</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>663.3544647387512</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>515.4413711563581</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.055751909234</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1164.055751909234</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>159.0121003135244</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -11074,10 +11074,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.77880425095958</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>136.4023979383061</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,10 +22792,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>278.4771891036099</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>36.51973141778791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.6447836574641</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>164.2373947110939</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>127.5680022894324</v>
       </c>
       <c r="H16" t="n">
-        <v>84.88836968070211</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>78.79854367738994</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>29.89407122271382</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>125.0667464684376</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>137.924805395682</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>134.7458406943958</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>33.38685156731853</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>168.4778851315242</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>53.6213422277888</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>38.87595250497108</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>91.43721164408274</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,7 +25365,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>104.2538880163789</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>227.8356641388029</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>69.84295585737289</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>259.2629056590285</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>46.78640795473351</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020681.761978348</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>966985.4952322281</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>966985.4952322282</v>
+        <v>966985.4952322283</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>966985.4952322283</v>
+        <v>966985.4952322281</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="H2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="I2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="J2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114799</v>
-      </c>
-      <c r="J2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
         <v>430131.9657114798</v>
@@ -26346,10 +26346,10 @@
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26456,10 +26456,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="P4" t="n">
         <v>29303.54555230233</v>
-      </c>
-      <c r="P4" t="n">
-        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395744.7611744241</v>
+        <v>-391310.6742754693</v>
       </c>
       <c r="C6" t="n">
-        <v>194223.1180401204</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="D6" t="n">
-        <v>194223.1180401203</v>
+        <v>198657.2049390751</v>
       </c>
       <c r="E6" t="n">
-        <v>-217293.5335261569</v>
+        <v>-216416.4013924074</v>
       </c>
       <c r="F6" t="n">
-        <v>307866.502950739</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="G6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="H6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844885</v>
       </c>
       <c r="I6" t="n">
-        <v>307866.5029507393</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="J6" t="n">
-        <v>131443.2837581462</v>
+        <v>132320.4158918957</v>
       </c>
       <c r="K6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844887</v>
       </c>
       <c r="L6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844887</v>
       </c>
       <c r="M6" t="n">
-        <v>173065.487716902</v>
+        <v>173942.6198506517</v>
       </c>
       <c r="N6" t="n">
-        <v>307866.5029507393</v>
+        <v>308743.6350844887</v>
       </c>
       <c r="O6" t="n">
-        <v>307866.5029507392</v>
+        <v>308743.6350844886</v>
       </c>
       <c r="P6" t="n">
-        <v>307866.5029507391</v>
+        <v>308743.6350844887</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,16 +26749,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.58195338463798</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>236.8884507277486</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.33357018799749</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,19 +35023,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>366.105515245049</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37794,10 +37794,10 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
